--- a/Analyzed/try8/data_2006.xlsx
+++ b/Analyzed/try8/data_2006.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>41.42</v>
       </c>
       <c r="J2">
-        <v>400.8</v>
+        <v>458.17536</v>
       </c>
       <c r="K2">
         <v>1215.156</v>
       </c>
       <c r="L2">
-        <v>426.72</v>
+        <v>488.91675</v>
       </c>
       <c r="M2">
         <v>51.25676437357827</v>
@@ -558,49 +583,64 @@
         <v>-87.53</v>
       </c>
       <c r="P2">
-        <v>494.0154848378049</v>
+        <v>648.7970484721873</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>5</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA2">
         <v>3</v>
       </c>
       <c r="AB2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -634,13 +674,13 @@
         <v>45.78</v>
       </c>
       <c r="J3">
-        <v>403</v>
+        <v>453.19823</v>
       </c>
       <c r="K3">
         <v>1665.863</v>
       </c>
       <c r="L3">
-        <v>377.58</v>
+        <v>437.94555</v>
       </c>
       <c r="M3">
         <v>50.32524388293626</v>
@@ -652,49 +692,64 @@
         <v>-110.71</v>
       </c>
       <c r="P3">
-        <v>501.1812034998234</v>
+        <v>661.6270944913057</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
         <v>5</v>
       </c>
-      <c r="V3">
-        <v>4</v>
-      </c>
-      <c r="W3">
-        <v>4</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>4</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +783,13 @@
         <v>47.89</v>
       </c>
       <c r="J4">
-        <v>404.8</v>
+        <v>425.50842</v>
       </c>
       <c r="K4">
         <v>3120.88</v>
       </c>
       <c r="L4">
-        <v>400.26</v>
+        <v>452.613</v>
       </c>
       <c r="M4">
         <v>53.16357084314431</v>
@@ -746,49 +801,64 @@
         <v>-87.42</v>
       </c>
       <c r="P4">
-        <v>508.1114966985834</v>
+        <v>667.0526794151527</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -822,13 +892,13 @@
         <v>42.54</v>
       </c>
       <c r="J5">
-        <v>383</v>
+        <v>400.93011</v>
       </c>
       <c r="K5">
         <v>1623.753</v>
       </c>
       <c r="L5">
-        <v>392.7</v>
+        <v>424.71345</v>
       </c>
       <c r="M5">
         <v>59.70148706463991</v>
@@ -840,31 +910,31 @@
         <v>-97.67</v>
       </c>
       <c r="P5">
-        <v>458.2886137942451</v>
+        <v>602.2192054154438</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -876,13 +946,28 @@
         <v>1</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD5">
         <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>2</v>
+      </c>
+      <c r="AI5">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -916,13 +1001,13 @@
         <v>37.31</v>
       </c>
       <c r="J6">
-        <v>370.8</v>
+        <v>362.76788</v>
       </c>
       <c r="K6">
         <v>836.6650000000001</v>
       </c>
       <c r="L6">
-        <v>419.37</v>
+        <v>431.76455</v>
       </c>
       <c r="M6">
         <v>60.6435512798977</v>
@@ -934,49 +1019,64 @@
         <v>-71.36</v>
       </c>
       <c r="P6">
-        <v>629.8262818939245</v>
+        <v>835.0441566449439</v>
       </c>
       <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="R6">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>3</v>
-      </c>
       <c r="S6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>2</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA6">
         <v>4</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD6">
         <v>4</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>4</v>
+      </c>
+      <c r="AG6">
+        <v>4</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1010,13 +1110,13 @@
         <v>37.25</v>
       </c>
       <c r="J7">
-        <v>411.2</v>
+        <v>438.59196</v>
       </c>
       <c r="K7">
         <v>2173.126</v>
       </c>
       <c r="L7">
-        <v>423.15</v>
+        <v>463.0248</v>
       </c>
       <c r="M7">
         <v>57.82882926734852</v>
@@ -1028,49 +1128,64 @@
         <v>-103.23</v>
       </c>
       <c r="P7">
-        <v>401.413983403517</v>
+        <v>523.7297249338751</v>
       </c>
       <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
         <v>6</v>
       </c>
-      <c r="R7">
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>4</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
         <v>5</v>
       </c>
-      <c r="S7">
-        <v>4</v>
-      </c>
-      <c r="T7">
-        <v>4</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>4</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>2</v>
-      </c>
-      <c r="Z7">
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
         <v>5</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>5</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1104,13 +1219,13 @@
         <v>32.07</v>
       </c>
       <c r="J8">
-        <v>387.8</v>
+        <v>398.52219</v>
       </c>
       <c r="K8">
         <v>1551.036</v>
       </c>
       <c r="L8">
-        <v>371.49</v>
+        <v>389.32425</v>
       </c>
       <c r="M8">
         <v>61.75774315750323</v>
@@ -1122,49 +1237,64 @@
         <v>-87.84</v>
       </c>
       <c r="P8">
-        <v>393.9773215162123</v>
+        <v>515.2918691313706</v>
       </c>
       <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
         <v>7</v>
       </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
       <c r="S8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>5</v>
       </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>3</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
         <v>1</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1198,13 +1328,13 @@
         <v>25.33</v>
       </c>
       <c r="J9">
-        <v>371.8</v>
+        <v>335.74863</v>
       </c>
       <c r="K9">
         <v>1022.358</v>
       </c>
       <c r="L9">
-        <v>378.63</v>
+        <v>359.7286</v>
       </c>
       <c r="M9">
         <v>68.70927029007782</v>
@@ -1216,49 +1346,64 @@
         <v>-160.34</v>
       </c>
       <c r="P9">
-        <v>275.9477813057356</v>
+        <v>357.939744546736</v>
       </c>
       <c r="Q9">
         <v>8</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>7</v>
       </c>
-      <c r="V9">
+      <c r="Y9">
         <v>7</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
       <c r="Z9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>3</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
